--- a/src/test/resources/testParameters.xlsx
+++ b/src/test/resources/testParameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\JavaProjects\AutomationFramework\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAF7F43-A66F-483D-B14E-25DF9A8FCDD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777BFD98-3A5D-4A53-B6DF-BD1416736184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2070" yWindow="780" windowWidth="18570" windowHeight="15030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,13 +36,13 @@
     <t>Browser</t>
   </si>
   <si>
+    <t>https://google.com</t>
+  </si>
+  <si>
+    <t>https://duckduckgo.com</t>
+  </si>
+  <si>
     <t>firefox</t>
-  </si>
-  <si>
-    <t>https://google.com</t>
-  </si>
-  <si>
-    <t>https://duckduckgo.com</t>
   </si>
 </sst>
 </file>
@@ -402,7 +402,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,13 +424,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
